--- a/Data Mix/ResultatExcel/PaysdelaLoire.xlsx
+++ b/Data Mix/ResultatExcel/PaysdelaLoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>6123395</v>
       </c>
       <c r="D2" t="n">
+        <v>1852636</v>
+      </c>
+      <c r="E2" t="n">
         <v>1634777</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>150847</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>14908</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2323</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>49781</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>11844545</v>
       </c>
       <c r="D3" t="n">
+        <v>3933688</v>
+      </c>
+      <c r="E3" t="n">
         <v>3447880</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>342563</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>43702</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>4909</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>94634</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>17612990</v>
       </c>
       <c r="D4" t="n">
+        <v>5829288</v>
+      </c>
+      <c r="E4" t="n">
         <v>5070460</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>515118</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>86125</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>7849</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>149736</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>22340246</v>
       </c>
       <c r="D5" t="n">
+        <v>7043537</v>
+      </c>
+      <c r="E5" t="n">
         <v>5982578</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>707080</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>148906</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>11095</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>193878</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>26400699</v>
       </c>
       <c r="D6" t="n">
+        <v>7697808</v>
+      </c>
+      <c r="E6" t="n">
         <v>6384404</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>839357</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>216691</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>13285</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>244071</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>30020090</v>
       </c>
       <c r="D7" t="n">
+        <v>8266699</v>
+      </c>
+      <c r="E7" t="n">
         <v>6715418</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>956903</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>288199</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>14371</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>291808</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>33868747</v>
       </c>
       <c r="D8" t="n">
+        <v>8869971</v>
+      </c>
+      <c r="E8" t="n">
         <v>7052878</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1085449</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>374684</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>14432</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>342528</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>37344999</v>
       </c>
       <c r="D9" t="n">
+        <v>9905120</v>
+      </c>
+      <c r="E9" t="n">
         <v>7865478</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1176939</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>458639</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>14432</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>389632</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>40964396</v>
       </c>
       <c r="D10" t="n">
+        <v>11183772</v>
+      </c>
+      <c r="E10" t="n">
         <v>8932652</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1290531</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>517173</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>14432</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>428984</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>45016661</v>
       </c>
       <c r="D11" t="n">
+        <v>12620135</v>
+      </c>
+      <c r="E11" t="n">
         <v>10107923</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1466419</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>555521</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>14496</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>475776</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>50142762</v>
       </c>
       <c r="D12" t="n">
+        <v>14335650</v>
+      </c>
+      <c r="E12" t="n">
         <v>11512565</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1701492</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>579034</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>17372</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>525187</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>55919392</v>
       </c>
       <c r="D13" t="n">
+        <v>15919958</v>
+      </c>
+      <c r="E13" t="n">
         <v>12759421</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>1957381</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>602917</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>19485</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>580754</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>377598922</v>
       </c>
       <c r="D14" t="n">
+        <v>107458262</v>
+      </c>
+      <c r="E14" t="n">
         <v>87466434</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>12190079</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>3886499</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>148481</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>3766769</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>61668569</v>
       </c>
       <c r="D15" t="n">
+        <v>17045247</v>
+      </c>
+      <c r="E15" t="n">
         <v>13511454</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>2245565</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>622095</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>24852</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>641281</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>66906143</v>
       </c>
       <c r="D16" t="n">
+        <v>17779109</v>
+      </c>
+      <c r="E16" t="n">
         <v>13792290</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>2605146</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>656520</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>28825</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>696328</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>71897424</v>
       </c>
       <c r="D17" t="n">
+        <v>19101350</v>
+      </c>
+      <c r="E17" t="n">
         <v>14821200</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>2768526</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>722765</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>34707</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>754152</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>76088894</v>
       </c>
       <c r="D18" t="n">
+        <v>20086225</v>
+      </c>
+      <c r="E18" t="n">
         <v>15521730</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>2924754</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>796713</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>39522</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>803506</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>79925327</v>
       </c>
       <c r="D19" t="n">
+        <v>20759785</v>
+      </c>
+      <c r="E19" t="n">
         <v>15861486</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>3110771</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>882733</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>44659</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>860136</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>83540945</v>
       </c>
       <c r="D20" t="n">
+        <v>21374961</v>
+      </c>
+      <c r="E20" t="n">
         <v>16195437</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>3234676</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>981256</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>46888</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>916704</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>87326681</v>
       </c>
       <c r="D21" t="n">
+        <v>21907307</v>
+      </c>
+      <c r="E21" t="n">
         <v>16463203</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>3345116</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1072726</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>48599</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>977663</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>90711492</v>
       </c>
       <c r="D22" t="n">
+        <v>22304677</v>
+      </c>
+      <c r="E22" t="n">
         <v>16614894</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>3454251</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>1154127</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>52228</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>1029177</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>94318930</v>
       </c>
       <c r="D23" t="n">
+        <v>23140270</v>
+      </c>
+      <c r="E23" t="n">
         <v>17209518</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>3550371</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1238084</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>53917</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>1088380</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>98294803</v>
       </c>
       <c r="D24" t="n">
+        <v>23993780</v>
+      </c>
+      <c r="E24" t="n">
         <v>17800776</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>3690445</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1290744</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>55806</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1156009</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>102849446</v>
       </c>
       <c r="D25" t="n">
+        <v>25308483</v>
+      </c>
+      <c r="E25" t="n">
         <v>18811629</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>3892756</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>1319956</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>61467</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>1222675</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>108516859</v>
       </c>
       <c r="D26" t="n">
+        <v>26757579</v>
+      </c>
+      <c r="E26" t="n">
         <v>19956100</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>4103269</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>1339402</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>67492</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>1291316</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>1777243357</v>
       </c>
       <c r="D27" t="n">
+        <v>474475297</v>
+      </c>
+      <c r="E27" t="n">
         <v>371492585</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>63305804</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>19850119</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>855924</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>18970865</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>114587970</v>
       </c>
       <c r="D28" t="n">
+        <v>28667357</v>
+      </c>
+      <c r="E28" t="n">
         <v>21507328</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>4364950</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>1364844</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>73818</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>1356417</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>120273717</v>
       </c>
       <c r="D29" t="n">
+        <v>30635235</v>
+      </c>
+      <c r="E29" t="n">
         <v>23101784</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>4628394</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1407450</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>80186</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>1417421</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>125600024</v>
       </c>
       <c r="D30" t="n">
+        <v>31891453</v>
+      </c>
+      <c r="E30" t="n">
         <v>23979133</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>4872538</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>1470758</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>87195</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>1481829</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>129732850</v>
       </c>
       <c r="D31" t="n">
+        <v>32345485</v>
+      </c>
+      <c r="E31" t="n">
         <v>24109824</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>5049117</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>1560407</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>92130</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>1534007</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>133464374</v>
       </c>
       <c r="D32" t="n">
+        <v>32698043</v>
+      </c>
+      <c r="E32" t="n">
         <v>24131695</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>5227867</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>1658298</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>96055</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>1584128</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>137071556</v>
       </c>
       <c r="D33" t="n">
+        <v>33027496</v>
+      </c>
+      <c r="E33" t="n">
         <v>24146834</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>5371746</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>1775573</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>97437</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>1635906</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>140856104</v>
       </c>
       <c r="D34" t="n">
+        <v>33360969</v>
+      </c>
+      <c r="E34" t="n">
         <v>24178412</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>5519035</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>1882788</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>97483</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>1683251</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>144322472</v>
       </c>
       <c r="D35" t="n">
+        <v>33849319</v>
+      </c>
+      <c r="E35" t="n">
         <v>24407997</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>5632540</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>1978061</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>97868</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>1732853</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>147995192</v>
       </c>
       <c r="D36" t="n">
+        <v>34837483</v>
+      </c>
+      <c r="E36" t="n">
         <v>25060584</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>5824436</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>2066320</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>97945</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>1788198</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>152332306</v>
       </c>
       <c r="D37" t="n">
+        <v>36235516</v>
+      </c>
+      <c r="E37" t="n">
         <v>26161580</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>6000858</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>2125288</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>97961</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>1849829</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>156835717</v>
       </c>
       <c r="D38" t="n">
+        <v>37418143</v>
+      </c>
+      <c r="E38" t="n">
         <v>26996876</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>6250569</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>2156144</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>99290</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>1915264</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>161894122</v>
       </c>
       <c r="D39" t="n">
+        <v>38562826</v>
+      </c>
+      <c r="E39" t="n">
         <v>27747566</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>6550723</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>2182886</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>102693</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>1978958</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>5219453118</v>
       </c>
       <c r="D40" t="n">
+        <v>1352479919</v>
+      </c>
+      <c r="E40" t="n">
         <v>1038514783</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>191904381</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>61329055</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>2831909</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>57899791</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>167655628</v>
       </c>
       <c r="D41" t="n">
+        <v>40320975</v>
+      </c>
+      <c r="E41" t="n">
         <v>29075478</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>6898025</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>2208997</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>108363</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>2030112</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>173015652</v>
       </c>
       <c r="D42" t="n">
+        <v>41686733</v>
+      </c>
+      <c r="E42" t="n">
         <v>30008933</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>7227509</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>2255672</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>113993</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>2080626</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>178520507</v>
       </c>
       <c r="D43" t="n">
+        <v>43159718</v>
+      </c>
+      <c r="E43" t="n">
         <v>31015619</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>7560314</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>2329404</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>120159</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>2134222</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>183202039</v>
       </c>
       <c r="D44" t="n">
+        <v>43998253</v>
+      </c>
+      <c r="E44" t="n">
         <v>31511401</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>7758850</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>2415954</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>126652</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>2185396</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>187084039</v>
       </c>
       <c r="D45" t="n">
+        <v>44342438</v>
+      </c>
+      <c r="E45" t="n">
         <v>31532416</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>7925203</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>2514084</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>132169</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>2238566</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>190689204</v>
       </c>
       <c r="D46" t="n">
+        <v>44635833</v>
+      </c>
+      <c r="E46" t="n">
         <v>31556113</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>8049715</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>2601400</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>135994</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>2292611</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>194385302</v>
       </c>
       <c r="D47" t="n">
+        <v>44943799</v>
+      </c>
+      <c r="E47" t="n">
         <v>31577083</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>8163912</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>2715742</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>137276</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>2349786</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>197969657</v>
       </c>
       <c r="D48" t="n">
+        <v>45256653</v>
+      </c>
+      <c r="E48" t="n">
         <v>31582069</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>8304586</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>2830897</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>137464</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>2401637</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>201637301</v>
       </c>
       <c r="D49" t="n">
+        <v>45902193</v>
+      </c>
+      <c r="E49" t="n">
         <v>32001047</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>8402192</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>2908278</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>137464</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>2453212</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>206028597</v>
       </c>
       <c r="D50" t="n">
+        <v>47165411</v>
+      </c>
+      <c r="E50" t="n">
         <v>32924621</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>8589696</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>2996097</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>137464</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>2517533</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>211089586</v>
       </c>
       <c r="D51" t="n">
+        <v>48929547</v>
+      </c>
+      <c r="E51" t="n">
         <v>34294671</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>8881743</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>3033673</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>138368</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>2581092</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>217020732</v>
       </c>
       <c r="D52" t="n">
+        <v>50738195</v>
+      </c>
+      <c r="E52" t="n">
         <v>35810196</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>9075293</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>3064829</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>139566</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>2648311</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>12747204480</v>
       </c>
       <c r="D53" t="n">
+        <v>3246039586</v>
+      </c>
+      <c r="E53" t="n">
         <v>2459919213</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>480645800</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>154533137</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>7228750</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>143712686</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>223717771</v>
       </c>
       <c r="D54" t="n">
+        <v>53306943</v>
+      </c>
+      <c r="E54" t="n">
         <v>38051008</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>9299494</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>3101518</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>141613</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>2713310</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>228867937</v>
       </c>
       <c r="D55" t="n">
+        <v>55356625</v>
+      </c>
+      <c r="E55" t="n">
         <v>39684703</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>9608185</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>3143445</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>145343</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>2774949</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>233921843</v>
       </c>
       <c r="D56" t="n">
+        <v>56591825</v>
+      </c>
+      <c r="E56" t="n">
         <v>40506918</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>9882647</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>3210570</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>149770</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>2841920</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>238126930</v>
       </c>
       <c r="D57" t="n">
+        <v>58043814</v>
+      </c>
+      <c r="E57" t="n">
         <v>41582787</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>10076693</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>3326222</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>151717</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>2906395</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>242073256</v>
       </c>
       <c r="D58" t="n">
+        <v>59203078</v>
+      </c>
+      <c r="E58" t="n">
         <v>42359079</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>10278992</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>3446836</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>153567</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>2964604</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>245776265</v>
       </c>
       <c r="D59" t="n">
+        <v>59860620</v>
+      </c>
+      <c r="E59" t="n">
         <v>42659129</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>10440036</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>3578397</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>153609</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>3029449</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>249529724</v>
       </c>
       <c r="D60" t="n">
+        <v>61059239</v>
+      </c>
+      <c r="E60" t="n">
         <v>43476867</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>10640703</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>3690806</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>153612</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>3097251</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>253071874</v>
       </c>
       <c r="D61" t="n">
+        <v>61534936</v>
+      </c>
+      <c r="E61" t="n">
         <v>43629147</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>10789897</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>3804624</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>153612</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>3157656</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>256806006</v>
       </c>
       <c r="D62" t="n">
+        <v>62520908</v>
+      </c>
+      <c r="E62" t="n">
         <v>44282589</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>10976476</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>3891002</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>153968</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>3216873</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>260887497</v>
       </c>
       <c r="D63" t="n">
+        <v>64495829</v>
+      </c>
+      <c r="E63" t="n">
         <v>45944521</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>11158331</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>3956297</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>154190</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>3282490</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>265982119</v>
       </c>
       <c r="D64" t="n">
+        <v>66760270</v>
+      </c>
+      <c r="E64" t="n">
         <v>47859206</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>11397097</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>3999754</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>155560</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>3348653</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>271830309</v>
       </c>
       <c r="D65" t="n">
+        <v>68698598</v>
+      </c>
+      <c r="E65" t="n">
         <v>49323354</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
       <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>11774280</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>4025636</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>160336</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>3414992</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>28465000491</v>
       </c>
       <c r="D66" t="n">
+        <v>7219511857</v>
+      </c>
+      <c r="E66" t="n">
         <v>5439197734</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>1087614431</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>352241381</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>16284397</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>324173914</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>277455518</v>
       </c>
       <c r="D67" t="n">
+        <v>69997948</v>
+      </c>
+      <c r="E67" t="n">
         <v>50062090</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
       <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>12245186</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>4044008</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>164482</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>3482182</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>283376669</v>
       </c>
       <c r="D68" t="n">
+        <v>72005137</v>
+      </c>
+      <c r="E68" t="n">
         <v>51601556</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>12585305</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>4102878</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>170031</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>3545367</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>289052672</v>
       </c>
       <c r="D69" t="n">
+        <v>73907793</v>
+      </c>
+      <c r="E69" t="n">
         <v>52948183</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>12991998</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>4178566</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>176300</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>3612746</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>293309910</v>
       </c>
       <c r="D70" t="n">
+        <v>74693303</v>
+      </c>
+      <c r="E70" t="n">
         <v>53353945</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>13198711</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>4281771</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>182184</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>3676692</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>297140563</v>
       </c>
       <c r="D71" t="n">
+        <v>75211041</v>
+      </c>
+      <c r="E71" t="n">
         <v>53480138</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>13372219</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>4425144</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>186489</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>3747051</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>300795853</v>
       </c>
       <c r="D72" t="n">
+        <v>75697080</v>
+      </c>
+      <c r="E72" t="n">
         <v>53605921</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
       <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>13528802</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>4560529</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>190832</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>3810996</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>304629799</v>
       </c>
       <c r="D73" t="n">
+        <v>77095916</v>
+      </c>
+      <c r="E73" t="n">
         <v>54671457</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
       <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>13652740</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>4708949</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>192735</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>3870035</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>308192684</v>
       </c>
       <c r="D74" t="n">
+        <v>78166236</v>
+      </c>
+      <c r="E74" t="n">
         <v>55424612</v>
       </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
       <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>13776266</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>4845323</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>192823</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>3927212</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>311812271</v>
       </c>
       <c r="D75" t="n">
+        <v>78983007</v>
+      </c>
+      <c r="E75" t="n">
         <v>55864831</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>13975358</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>4963022</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>192823</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>3986973</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>316017943</v>
       </c>
       <c r="D76" t="n">
+        <v>80484111</v>
+      </c>
+      <c r="E76" t="n">
         <v>56935072</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>14254252</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>5049862</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>192823</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>4052102</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>321149626</v>
       </c>
       <c r="D77" t="n">
+        <v>81756243</v>
+      </c>
+      <c r="E77" t="n">
         <v>57739918</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
       <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>14601657</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>5102803</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>193500</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>4118365</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>326623399</v>
       </c>
       <c r="D78" t="n">
+        <v>82974940</v>
+      </c>
+      <c r="E78" t="n">
         <v>58436922</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
         <v>15037637</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>5118254</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>197461</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>4184666</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>60559557889</v>
       </c>
       <c r="D79" t="n">
+        <v>15359996469</v>
+      </c>
+      <c r="E79" t="n">
         <v>11532520113</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>2338448993</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>759863871</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>34801277</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>694362215</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>332847818</v>
       </c>
       <c r="D80" t="n">
+        <v>84437157</v>
+      </c>
+      <c r="E80" t="n">
         <v>59490944</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
       <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>15330805</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>5156004</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>203198</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>4256206</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>337989830</v>
       </c>
       <c r="D81" t="n">
+        <v>85571188</v>
+      </c>
+      <c r="E81" t="n">
         <v>60177121</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
       <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>15636191</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>5229721</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>208475</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>4319680</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>343069229</v>
       </c>
       <c r="D82" t="n">
+        <v>86708933</v>
+      </c>
+      <c r="E82" t="n">
         <v>60629024</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>16136872</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>5334958</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>215365</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>4392714</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>347471537</v>
       </c>
       <c r="D83" t="n">
+        <v>87490857</v>
+      </c>
+      <c r="E83" t="n">
         <v>60941664</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
       <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>16414134</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>5453709</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>219974</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>4461376</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>351423851</v>
       </c>
       <c r="D84" t="n">
+        <v>88340420</v>
+      </c>
+      <c r="E84" t="n">
         <v>61308686</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>16674062</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>5600579</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>222947</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>4534146</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>355025512</v>
       </c>
       <c r="D85" t="n">
+        <v>88976587</v>
+      </c>
+      <c r="E85" t="n">
         <v>61499265</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
       <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>16887344</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>5756268</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>225052</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>4608658</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>358887708</v>
       </c>
       <c r="D86" t="n">
+        <v>89951801</v>
+      </c>
+      <c r="E86" t="n">
         <v>62009265</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
       <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>17115718</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>5921588</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>225164</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>4680066</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>362371172</v>
       </c>
       <c r="D87" t="n">
+        <v>90752912</v>
+      </c>
+      <c r="E87" t="n">
         <v>62379854</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>17325312</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>6066726</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>225193</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>4755827</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>365984525</v>
       </c>
       <c r="D88" t="n">
+        <v>91748889</v>
+      </c>
+      <c r="E88" t="n">
         <v>62839284</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>17674620</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>6189176</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>225193</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>4820616</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>370142361</v>
       </c>
       <c r="D89" t="n">
+        <v>92706836</v>
+      </c>
+      <c r="E89" t="n">
         <v>63297886</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>18018834</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>6262283</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>226682</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>4901151</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>375352885</v>
       </c>
       <c r="D90" t="n">
+        <v>94452028</v>
+      </c>
+      <c r="E90" t="n">
         <v>64503986</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
       <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>18431198</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>6308076</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>230344</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>4978424</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>380990131</v>
       </c>
       <c r="D91" t="n">
+        <v>95944814</v>
+      </c>
+      <c r="E91" t="n">
         <v>65316225</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
       <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>18982439</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>6350942</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>235416</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>5059792</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>125400672337</v>
       </c>
       <c r="D92" t="n">
+        <v>31797075360</v>
+      </c>
+      <c r="E92" t="n">
         <v>23809433430</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>4881525515</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>1589357772</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>72265557</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>1444493086</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>386817891</v>
       </c>
       <c r="D93" t="n">
+        <v>97625235</v>
+      </c>
+      <c r="E93" t="n">
         <v>66317720</v>
       </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>19529205</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>6396257</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>243137</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>5138916</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>391927636</v>
       </c>
       <c r="D94" t="n">
+        <v>99149129</v>
+      </c>
+      <c r="E94" t="n">
         <v>67008240</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
       <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
         <v>20216467</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>6461548</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>249671</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>5213203</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>396897469</v>
       </c>
       <c r="D95" t="n">
+        <v>100384082</v>
+      </c>
+      <c r="E95" t="n">
         <v>67515352</v>
       </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>20749767</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>6568538</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>257076</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>5293349</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>400491845</v>
       </c>
       <c r="D96" t="n">
+        <v>100905266</v>
+      </c>
+      <c r="E96" t="n">
         <v>67530045</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>21031654</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>6710132</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>261977</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>5371458</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>404099802</v>
       </c>
       <c r="D97" t="n">
+        <v>101819026</v>
+      </c>
+      <c r="E97" t="n">
         <v>67825362</v>
       </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
       <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>21385908</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>6889931</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>265665</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>5452160</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>407622057</v>
       </c>
       <c r="D98" t="n">
+        <v>102750785</v>
+      </c>
+      <c r="E98" t="n">
         <v>68263689</v>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
         <v>21649730</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>7039029</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>267300</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>5531037</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>411365644</v>
       </c>
       <c r="D99" t="n">
+        <v>103997446</v>
+      </c>
+      <c r="E99" t="n">
         <v>69010444</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>21885110</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>7221142</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>267387</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>5613363</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>414852916</v>
       </c>
       <c r="D100" t="n">
+        <v>104802006</v>
+      </c>
+      <c r="E100" t="n">
         <v>69358718</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>22100732</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>7375999</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>267527</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>5699030</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>418501062</v>
       </c>
       <c r="D101" t="n">
+        <v>105342416</v>
+      </c>
+      <c r="E101" t="n">
         <v>69465733</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>22327991</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>7503220</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>267663</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>5777809</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>422935548</v>
       </c>
       <c r="D102" t="n">
+        <v>106273487</v>
+      </c>
+      <c r="E102" t="n">
         <v>69768559</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>22806695</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>7579068</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>268806</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>5850359</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>427581230</v>
       </c>
       <c r="D103" t="n">
+        <v>107458071</v>
+      </c>
+      <c r="E103" t="n">
         <v>70417345</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>23190484</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>7646940</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>272005</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>5931297</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>433123598</v>
       </c>
       <c r="D104" t="n">
+        <v>109193107</v>
+      </c>
+      <c r="E104" t="n">
         <v>71455860</v>
       </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
       <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
         <v>23772448</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>7686699</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>278628</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>5999472</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>255717561372</v>
       </c>
       <c r="D105" t="n">
+        <v>64833850776</v>
+      </c>
+      <c r="E105" t="n">
         <v>48442803927</v>
       </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>10023697221</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>3263794047</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>147697956</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>2955857625</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>439446266</v>
       </c>
       <c r="D106" t="n">
+        <v>111212851</v>
+      </c>
+      <c r="E106" t="n">
         <v>72867813</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>24262051</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>7726387</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>286904</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>6069696</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>444643446</v>
       </c>
       <c r="D107" t="n">
+        <v>112534548</v>
+      </c>
+      <c r="E107" t="n">
         <v>73549171</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
       <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
         <v>24765162</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>7794737</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>294193</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>6131285</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>449710202</v>
       </c>
       <c r="D108" t="n">
+        <v>113872929</v>
+      </c>
+      <c r="E108" t="n">
         <v>74333344</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
       <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>25186475</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>7850790</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>300678</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>6201642</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>453947482</v>
       </c>
       <c r="D109" t="n">
+        <v>115281080</v>
+      </c>
+      <c r="E109" t="n">
         <v>75108108</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
       <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>25544961</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>8049570</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>304216</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>6274225</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>457806699</v>
       </c>
       <c r="D110" t="n">
+        <v>116226681</v>
+      </c>
+      <c r="E110" t="n">
         <v>75277077</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
       <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>26034014</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>8253930</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>308177</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>6353483</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>461286461</v>
       </c>
       <c r="D111" t="n">
+        <v>116693442</v>
+      </c>
+      <c r="E111" t="n">
         <v>75350479</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
       <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
         <v>26160307</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>8441278</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>310586</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>6430792</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>464922464</v>
       </c>
       <c r="D112" t="n">
+        <v>117398173</v>
+      </c>
+      <c r="E112" t="n">
         <v>75456805</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
       <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>26463328</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>8645345</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>313255</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>6519440</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>468244045</v>
       </c>
       <c r="D113" t="n">
+        <v>117959141</v>
+      </c>
+      <c r="E113" t="n">
         <v>75582414</v>
       </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>26650964</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>8824331</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>313932</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>6587500</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>471798848</v>
       </c>
       <c r="D114" t="n">
+        <v>119574032</v>
+      </c>
+      <c r="E114" t="n">
         <v>76722320</v>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
       <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
         <v>26875992</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>8992657</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>314075</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>6668988</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>475784357</v>
       </c>
       <c r="D115" t="n">
+        <v>121471362</v>
+      </c>
+      <c r="E115" t="n">
         <v>78039962</v>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
       <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>27239190</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>9126876</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>316263</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>6749071</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>480995959</v>
       </c>
       <c r="D116" t="n">
+        <v>123346523</v>
+      </c>
+      <c r="E116" t="n">
         <v>79436926</v>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
       <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>27558458</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>9202374</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>318008</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>6830757</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>486673303</v>
       </c>
       <c r="D117" t="n">
+        <v>125559865</v>
+      </c>
+      <c r="E117" t="n">
         <v>80918672</v>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>28154500</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>9245981</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>323919</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>6916793</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>516990382276</v>
       </c>
       <c r="D118" t="n">
+        <v>131078832179</v>
+      </c>
+      <c r="E118" t="n">
         <v>97798250945</v>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
       <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>20362289844</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>6629742350</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>299100118</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>5989448922</v>
       </c>
     </row>
